--- a/MyProject/Luban/Config/Datas/__beans__.xlsx
+++ b/MyProject/Luban/Config/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\MyProject\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F9DFF1-9BD5-4ED6-BDA4-787FEC2B332D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1552C45-BB2D-4838-84BF-6D5BB8D0DA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28740" yWindow="6915" windowWidth="28740" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16785" yWindow="8220" windowWidth="28740" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -159,6 +159,82 @@
   </si>
   <si>
     <t>AttackTarget</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图上对应名字/事件名字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorrespondentId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件对应怪物/对话Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>列</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventTypeEnum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartingRow</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartingCol</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndingRow</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束列</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndingCol</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapEvent</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -547,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -779,12 +855,93 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
